--- a/【ラジャット】履歴書 .xlsx
+++ b/【ラジャット】履歴書 .xlsx
@@ -638,9 +638,6 @@
     <t>TOEIC</t>
   </si>
   <si>
-    <t>読書、音楽。</t>
-  </si>
-  <si>
     <t>ボール　高校　卒業</t>
   </si>
   <si>
@@ -662,7 +659,11 @@
     <t>TechnoPro Engineering（現在）</t>
   </si>
   <si>
-    <t>2020年　8月　06日現在</t>
+    <t>撮影、
+トレッキング。</t>
+  </si>
+  <si>
+    <t>2021年　1月　30日現在</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2158,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2300,16 +2301,454 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="103" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2336,12 +2775,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2354,449 +2787,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="103" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3389,7 +3393,7 @@
   <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:P9"/>
+      <selection activeCell="S5" sqref="S5:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
@@ -3397,27 +3401,29 @@
     <col min="1" max="1" width="4.69921875" style="1" customWidth="1"/>
     <col min="2" max="16" width="5.09765625" style="1" customWidth="1"/>
     <col min="17" max="18" width="2" style="22" customWidth="1"/>
-    <col min="19" max="34" width="5.09765625" style="1" customWidth="1"/>
+    <col min="19" max="21" width="5.09765625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="4.09765625" style="1" customWidth="1"/>
+    <col min="23" max="34" width="5.09765625" style="1" customWidth="1"/>
     <col min="35" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="198"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="11"/>
-      <c r="I1" s="115" t="s">
+      <c r="I1" s="152" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -3441,137 +3447,137 @@
     </row>
     <row r="2" spans="1:33" ht="23.25" customHeight="1">
       <c r="A2" s="25"/>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="73" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="136" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="141" t="s">
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="142"/>
+      <c r="M2" s="178"/>
       <c r="N2" s="9"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
-      <c r="S2" s="66" t="s">
+      <c r="S2" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="67"/>
+      <c r="T2" s="174"/>
       <c r="U2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="139" t="s">
+      <c r="V2" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="139"/>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="140"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="108"/>
     </row>
     <row r="3" spans="1:33" ht="23.25" customHeight="1">
       <c r="A3" s="25"/>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="147" t="s">
+      <c r="C3" s="146"/>
+      <c r="D3" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="143" t="s">
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="179" t="s">
         <v>116</v>
       </c>
-      <c r="M3" s="144"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="95"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="176"/>
       <c r="U3" s="47"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="101"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="118"/>
+      <c r="AG3" s="119"/>
     </row>
     <row r="4" spans="1:33" ht="23.25" customHeight="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="199"/>
-      <c r="O4" s="199"/>
-      <c r="P4" s="199"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="112"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="51"/>
       <c r="U4" s="34"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="49"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="81"/>
     </row>
     <row r="5" spans="1:33" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="25"/>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="151">
+      <c r="C5" s="73"/>
+      <c r="D5" s="138">
         <v>1995</v>
       </c>
-      <c r="E5" s="151"/>
+      <c r="E5" s="138"/>
       <c r="F5" s="27" t="s">
         <v>111</v>
       </c>
@@ -3596,401 +3602,401 @@
       <c r="M5" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="N5" s="195"/>
-      <c r="O5" s="196"/>
-      <c r="P5" s="196"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
       <c r="Q5" s="29"/>
       <c r="R5" s="29"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="51"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="49"/>
       <c r="U5" s="34"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="126"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
-      <c r="AE5" s="126"/>
-      <c r="AF5" s="126"/>
-      <c r="AG5" s="127"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="84"/>
     </row>
     <row r="6" spans="1:33" ht="23.25" customHeight="1">
       <c r="A6" s="25"/>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="152" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="154"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="140"/>
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="49"/>
       <c r="U6" s="34"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="127"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="84"/>
     </row>
     <row r="7" spans="1:33" ht="23.25" customHeight="1">
       <c r="A7" s="25"/>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="163"/>
+      <c r="C7" s="149"/>
       <c r="D7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="161">
+      <c r="E7" s="147">
         <v>6730044</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="134" t="s">
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136" t="s">
+      <c r="J7" s="169"/>
+      <c r="K7" s="170" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="138"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="172"/>
       <c r="Q7" s="29"/>
       <c r="R7" s="29"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="51"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="49"/>
       <c r="U7" s="34"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="126"/>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="127"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="84"/>
     </row>
     <row r="8" spans="1:33" ht="23.25" customHeight="1">
       <c r="A8" s="25"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="179" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="179"/>
-      <c r="P8" s="180"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="127"/>
       <c r="Q8" s="29"/>
       <c r="R8" s="29"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="51"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="49"/>
       <c r="U8" s="34"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="126"/>
-      <c r="AG8" s="127"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="84"/>
     </row>
     <row r="9" spans="1:33" ht="23.25" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="181"/>
-      <c r="P9" s="182"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="129"/>
       <c r="Q9" s="29"/>
       <c r="R9" s="29"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="51"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="49"/>
       <c r="U9" s="34"/>
-      <c r="V9" s="125"/>
-      <c r="W9" s="126"/>
-      <c r="X9" s="126"/>
-      <c r="Y9" s="126"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="127"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="84"/>
     </row>
     <row r="10" spans="1:33" ht="23.25" customHeight="1" thickBot="1">
       <c r="A10" s="25"/>
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="160"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="166" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="160"/>
-      <c r="K10" s="167">
+      <c r="J10" s="79"/>
+      <c r="K10" s="110">
         <v>8031293753</v>
       </c>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="169"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="112"/>
       <c r="Q10" s="29"/>
       <c r="R10" s="29"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="82"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="123"/>
       <c r="U10" s="35"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="129"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
-      <c r="AB10" s="129"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="129"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="129"/>
-      <c r="AG10" s="130"/>
+      <c r="V10" s="162"/>
+      <c r="W10" s="163"/>
+      <c r="X10" s="163"/>
+      <c r="Y10" s="163"/>
+      <c r="Z10" s="163"/>
+      <c r="AA10" s="163"/>
+      <c r="AB10" s="163"/>
+      <c r="AC10" s="163"/>
+      <c r="AD10" s="163"/>
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="163"/>
+      <c r="AG10" s="164"/>
     </row>
     <row r="11" spans="1:33" ht="23.25" customHeight="1">
       <c r="A11" s="25"/>
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="166" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="J11" s="160"/>
-      <c r="K11" s="170" t="s">
+      <c r="J11" s="79"/>
+      <c r="K11" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="L11" s="171"/>
-      <c r="M11" s="171"/>
-      <c r="N11" s="171"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="172"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="115"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="29"/>
-      <c r="S11" s="177" t="s">
+      <c r="S11" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="T11" s="178"/>
+      <c r="T11" s="125"/>
       <c r="U11" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="131" t="s">
+      <c r="V11" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="132"/>
-      <c r="AA11" s="132"/>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="132"/>
-      <c r="AF11" s="132"/>
-      <c r="AG11" s="133"/>
+      <c r="W11" s="166"/>
+      <c r="X11" s="166"/>
+      <c r="Y11" s="166"/>
+      <c r="Z11" s="166"/>
+      <c r="AA11" s="166"/>
+      <c r="AB11" s="166"/>
+      <c r="AC11" s="166"/>
+      <c r="AD11" s="166"/>
+      <c r="AE11" s="166"/>
+      <c r="AF11" s="166"/>
+      <c r="AG11" s="167"/>
     </row>
     <row r="12" spans="1:33" ht="23.25" customHeight="1">
       <c r="A12" s="25"/>
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="207" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="N12" s="208"/>
-      <c r="O12" s="208"/>
-      <c r="P12" s="209"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="71"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="29"/>
-      <c r="S12" s="175">
+      <c r="S12" s="88">
         <v>2018</v>
       </c>
-      <c r="T12" s="176"/>
+      <c r="T12" s="89"/>
       <c r="U12" s="47">
         <v>6</v>
       </c>
-      <c r="V12" s="89" t="s">
+      <c r="V12" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="91"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="161"/>
     </row>
     <row r="13" spans="1:33" ht="23.25" customHeight="1">
       <c r="A13" s="25"/>
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="203" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="203"/>
-      <c r="K13" s="203"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="200"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="202"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="59"/>
       <c r="Q13" s="29"/>
       <c r="R13" s="31"/>
-      <c r="S13" s="111">
+      <c r="S13" s="50">
         <v>2019</v>
       </c>
-      <c r="T13" s="112"/>
+      <c r="T13" s="51"/>
       <c r="U13" s="34">
         <v>6</v>
       </c>
-      <c r="V13" s="89" t="s">
+      <c r="V13" s="160" t="s">
         <v>153</v>
       </c>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="91"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="161"/>
     </row>
     <row r="14" spans="1:33" ht="12.75" customHeight="1" thickBot="1">
       <c r="A14" s="25"/>
-      <c r="B14" s="212"/>
-      <c r="C14" s="213"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="205"/>
-      <c r="F14" s="205"/>
-      <c r="G14" s="205"/>
-      <c r="H14" s="205"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="205"/>
-      <c r="K14" s="205"/>
-      <c r="L14" s="206"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="85"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="62"/>
       <c r="Q14" s="29"/>
       <c r="R14" s="31"/>
-      <c r="S14" s="92">
+      <c r="S14" s="186">
         <v>2019</v>
       </c>
-      <c r="T14" s="93"/>
-      <c r="U14" s="96">
+      <c r="T14" s="187"/>
+      <c r="U14" s="188">
         <v>8</v>
       </c>
-      <c r="V14" s="98" t="s">
+      <c r="V14" s="190" t="s">
         <v>154</v>
       </c>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="98"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="98"/>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="99"/>
+      <c r="W14" s="190"/>
+      <c r="X14" s="190"/>
+      <c r="Y14" s="190"/>
+      <c r="Z14" s="190"/>
+      <c r="AA14" s="190"/>
+      <c r="AB14" s="190"/>
+      <c r="AC14" s="190"/>
+      <c r="AD14" s="190"/>
+      <c r="AE14" s="190"/>
+      <c r="AF14" s="190"/>
+      <c r="AG14" s="191"/>
     </row>
     <row r="15" spans="1:33" ht="12.75" customHeight="1" thickBot="1">
       <c r="B15" s="3"/>
@@ -4010,109 +4016,109 @@
       <c r="P15" s="21"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="31"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="100"/>
-      <c r="Y15" s="100"/>
-      <c r="Z15" s="100"/>
-      <c r="AA15" s="100"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="100"/>
-      <c r="AD15" s="100"/>
-      <c r="AE15" s="100"/>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="101"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="176"/>
+      <c r="U15" s="189"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="118"/>
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="118"/>
+      <c r="AD15" s="118"/>
+      <c r="AE15" s="118"/>
+      <c r="AF15" s="118"/>
+      <c r="AG15" s="119"/>
     </row>
     <row r="16" spans="1:33" ht="23.25" customHeight="1">
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="173" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="174"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="139" t="s">
+      <c r="E16" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="140"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="108"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
     </row>
     <row r="17" spans="2:34" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B17" s="175">
+      <c r="B17" s="88">
         <v>2014</v>
       </c>
-      <c r="C17" s="176"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="5">
         <v>4</v>
       </c>
-      <c r="E17" s="100" t="s">
+      <c r="E17" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="101"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="119"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
-      <c r="S17" s="193"/>
-      <c r="T17" s="194"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="53"/>
       <c r="U17" s="35"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="69"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="102"/>
+      <c r="AF17" s="102"/>
+      <c r="AG17" s="103"/>
     </row>
     <row r="18" spans="2:34" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B18" s="50">
+      <c r="B18" s="48">
         <v>2010</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="6">
         <v>6</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="49"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="81"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="29"/>
       <c r="S18" s="3"/>
@@ -4132,148 +4138,148 @@
       <c r="AG18" s="3"/>
     </row>
     <row r="19" spans="2:34" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B19" s="50">
+      <c r="B19" s="48">
         <v>2012</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="6">
         <v>5</v>
       </c>
-      <c r="E19" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="49"/>
+      <c r="E19" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="81"/>
       <c r="Q19" s="29"/>
       <c r="R19" s="29"/>
-      <c r="S19" s="118" t="s">
+      <c r="S19" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="T19" s="119"/>
-      <c r="U19" s="119"/>
-      <c r="V19" s="119"/>
-      <c r="W19" s="119"/>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="119"/>
-      <c r="Z19" s="119"/>
-      <c r="AA19" s="119"/>
-      <c r="AB19" s="119"/>
-      <c r="AC19" s="119"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="119"/>
-      <c r="AF19" s="119"/>
-      <c r="AG19" s="120"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="156"/>
+      <c r="Y19" s="156"/>
+      <c r="Z19" s="156"/>
+      <c r="AA19" s="156"/>
+      <c r="AB19" s="156"/>
+      <c r="AC19" s="156"/>
+      <c r="AD19" s="156"/>
+      <c r="AE19" s="156"/>
+      <c r="AF19" s="156"/>
+      <c r="AG19" s="157"/>
     </row>
     <row r="20" spans="2:34" ht="23.25" customHeight="1">
-      <c r="B20" s="50">
+      <c r="B20" s="48">
         <v>2013</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="6">
         <v>6</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="49"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="81"/>
       <c r="Q20" s="29"/>
       <c r="R20" s="29"/>
-      <c r="S20" s="121" t="s">
+      <c r="S20" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="122"/>
-      <c r="U20" s="124" t="s">
+      <c r="T20" s="144"/>
+      <c r="U20" s="159" t="s">
         <v>125</v>
       </c>
-      <c r="V20" s="122"/>
-      <c r="W20" s="124" t="s">
+      <c r="V20" s="144"/>
+      <c r="W20" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="123" t="s">
+      <c r="X20" s="158"/>
+      <c r="Y20" s="158" t="s">
         <v>126</v>
       </c>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="116" t="s">
+      <c r="Z20" s="154"/>
+      <c r="AA20" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="AB20" s="123"/>
-      <c r="AC20" s="123" t="s">
+      <c r="AB20" s="158"/>
+      <c r="AC20" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="116">
+      <c r="AD20" s="154"/>
+      <c r="AE20" s="153">
         <v>940</v>
       </c>
-      <c r="AF20" s="117"/>
+      <c r="AF20" s="154"/>
       <c r="AG20" s="38" t="s">
         <v>130</v>
       </c>
       <c r="AH20" s="46"/>
     </row>
     <row r="21" spans="2:34" ht="23.25" customHeight="1">
-      <c r="B21" s="50">
+      <c r="B21" s="48">
         <v>2017</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="6">
         <v>5</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="49"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="81"/>
       <c r="Q21" s="29"/>
       <c r="R21" s="29"/>
-      <c r="S21" s="113" t="s">
+      <c r="S21" s="196" t="s">
         <v>127</v>
       </c>
-      <c r="T21" s="114"/>
+      <c r="T21" s="197"/>
       <c r="U21" s="44">
         <v>10</v>
       </c>
       <c r="V21" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="W21" s="77" t="s">
+      <c r="W21" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="75" t="s">
+      <c r="X21" s="91"/>
+      <c r="Y21" s="194" t="s">
         <v>147</v>
       </c>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="76"/>
+      <c r="Z21" s="195"/>
+      <c r="AA21" s="195"/>
+      <c r="AB21" s="195"/>
       <c r="AC21" s="40">
         <v>2019</v>
       </c>
@@ -4283,346 +4289,346 @@
       <c r="AE21" s="39">
         <v>8</v>
       </c>
-      <c r="AF21" s="77" t="s">
+      <c r="AF21" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="AG21" s="79"/>
+      <c r="AG21" s="104"/>
     </row>
     <row r="22" spans="2:34" ht="23.25" customHeight="1">
-      <c r="B22" s="50">
+      <c r="B22" s="48">
         <v>2018</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="6">
         <v>11</v>
       </c>
-      <c r="E22" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
+      <c r="E22" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="81"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
-      <c r="S22" s="185" t="s">
+      <c r="S22" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="T22" s="186"/>
-      <c r="U22" s="105" t="s">
+      <c r="T22" s="86"/>
+      <c r="U22" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="V22" s="186"/>
-      <c r="W22" s="105" t="s">
+      <c r="V22" s="86"/>
+      <c r="W22" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106" t="s">
+      <c r="X22" s="100"/>
+      <c r="Y22" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="108" t="s">
+      <c r="Z22" s="101"/>
+      <c r="AA22" s="193" t="s">
         <v>148</v>
       </c>
-      <c r="AB22" s="109"/>
-      <c r="AC22" s="109" t="s">
+      <c r="AB22" s="116"/>
+      <c r="AC22" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="AD22" s="110"/>
-      <c r="AE22" s="108"/>
-      <c r="AF22" s="110"/>
+      <c r="AD22" s="117"/>
+      <c r="AE22" s="193"/>
+      <c r="AF22" s="117"/>
       <c r="AG22" s="41" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:34" ht="23.25" customHeight="1">
-      <c r="B23" s="50">
+      <c r="B23" s="48">
         <v>2020</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="6">
         <v>1</v>
       </c>
-      <c r="E23" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="49"/>
+      <c r="E23" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="81"/>
       <c r="Q23" s="29"/>
       <c r="R23" s="29"/>
-      <c r="S23" s="187" t="s">
+      <c r="S23" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="T23" s="188"/>
+      <c r="T23" s="93"/>
       <c r="U23" s="12"/>
       <c r="V23" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="W23" s="77" t="s">
+      <c r="W23" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="75" t="s">
+      <c r="X23" s="91"/>
+      <c r="Y23" s="194" t="s">
         <v>147</v>
       </c>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="76"/>
+      <c r="Z23" s="195"/>
+      <c r="AA23" s="195"/>
+      <c r="AB23" s="195"/>
       <c r="AC23" s="42"/>
       <c r="AD23" s="39" t="s">
         <v>111</v>
       </c>
       <c r="AE23" s="39"/>
-      <c r="AF23" s="77" t="s">
+      <c r="AF23" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="AG23" s="79"/>
+      <c r="AG23" s="104"/>
     </row>
     <row r="24" spans="2:34" ht="23.25" customHeight="1">
-      <c r="B24" s="111">
+      <c r="B24" s="50">
         <v>2020</v>
       </c>
-      <c r="C24" s="112"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="34">
         <v>6</v>
       </c>
-      <c r="E24" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="49"/>
+      <c r="E24" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81"/>
       <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="104" t="s">
+      <c r="S24" s="141"/>
+      <c r="T24" s="142"/>
+      <c r="U24" s="192" t="s">
         <v>125</v>
       </c>
-      <c r="V24" s="103"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106" t="s">
+      <c r="V24" s="142"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="Z24" s="107"/>
-      <c r="AA24" s="108"/>
-      <c r="AB24" s="109"/>
-      <c r="AC24" s="109" t="s">
+      <c r="Z24" s="101"/>
+      <c r="AA24" s="193"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="AD24" s="103"/>
-      <c r="AE24" s="105" t="s">
+      <c r="AD24" s="142"/>
+      <c r="AE24" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="AF24" s="110"/>
+      <c r="AF24" s="117"/>
       <c r="AG24" s="41" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:34" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="81"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
-      <c r="S25" s="58" t="s">
+      <c r="S25" s="204" t="s">
         <v>127</v>
       </c>
-      <c r="T25" s="59"/>
+      <c r="T25" s="205"/>
       <c r="U25" s="26"/>
       <c r="V25" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="W25" s="60" t="s">
+      <c r="W25" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="206"/>
+      <c r="Z25" s="207"/>
+      <c r="AA25" s="207"/>
+      <c r="AB25" s="207"/>
       <c r="AC25" s="43"/>
       <c r="AD25" s="24" t="s">
         <v>111</v>
       </c>
       <c r="AE25" s="19"/>
-      <c r="AF25" s="64" t="s">
+      <c r="AF25" s="208" t="s">
         <v>131</v>
       </c>
-      <c r="AG25" s="65"/>
+      <c r="AG25" s="209"/>
     </row>
     <row r="26" spans="2:34" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="81"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="189"/>
-      <c r="U26" s="189"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="190"/>
-      <c r="X26" s="191"/>
-      <c r="Y26" s="192"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="61"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="97"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="183"/>
+      <c r="AA26" s="184"/>
+      <c r="AB26" s="184"/>
+      <c r="AC26" s="184"/>
+      <c r="AD26" s="185"/>
+      <c r="AE26" s="94"/>
+      <c r="AF26" s="96"/>
       <c r="AG26" s="26"/>
       <c r="AH26" s="17"/>
     </row>
-    <row r="27" spans="2:34" ht="23.25" customHeight="1">
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
+    <row r="27" spans="2:34" ht="33" customHeight="1">
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="49"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="81"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
-      <c r="S27" s="70" t="s">
+      <c r="S27" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71" t="s">
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="211"/>
+      <c r="W27" s="214" t="s">
+        <v>162</v>
+      </c>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="71"/>
-      <c r="AC27" s="71"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="74"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="211"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="212"/>
       <c r="AG27" s="38" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="28" spans="2:34" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="49"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="81"/>
       <c r="Q28" s="29"/>
       <c r="R28" s="29"/>
-      <c r="S28" s="80" t="s">
+      <c r="S28" s="122" t="s">
         <v>150</v>
       </c>
-      <c r="T28" s="81"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="81" t="s">
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="123"/>
+      <c r="W28" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="84" t="s">
+      <c r="X28" s="61"/>
+      <c r="Y28" s="213"/>
+      <c r="Z28" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="82"/>
-      <c r="AE28" s="81" t="s">
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="123"/>
+      <c r="AE28" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="AF28" s="81"/>
-      <c r="AG28" s="85"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="62"/>
     </row>
     <row r="29" spans="2:34" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="49"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="81"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="24"/>
@@ -4643,21 +4649,21 @@
       <c r="AH29" s="17"/>
     </row>
     <row r="30" spans="2:34" ht="23.25" customHeight="1">
-      <c r="B30" s="111"/>
-      <c r="C30" s="112"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="81"/>
       <c r="Q30" s="29"/>
       <c r="R30" s="29"/>
       <c r="S30" s="13" t="s">
@@ -4679,74 +4685,74 @@
       <c r="AG30" s="33"/>
     </row>
     <row r="31" spans="2:34" ht="23.25" customHeight="1">
-      <c r="B31" s="111"/>
-      <c r="C31" s="112"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="49"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="81"/>
       <c r="Q31" s="29"/>
       <c r="R31" s="29"/>
-      <c r="S31" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="53"/>
-      <c r="AD31" s="53"/>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="54"/>
+      <c r="S31" s="198" t="s">
+        <v>159</v>
+      </c>
+      <c r="T31" s="199"/>
+      <c r="U31" s="199"/>
+      <c r="V31" s="199"/>
+      <c r="W31" s="199"/>
+      <c r="X31" s="199"/>
+      <c r="Y31" s="199"/>
+      <c r="Z31" s="199"/>
+      <c r="AA31" s="199"/>
+      <c r="AB31" s="199"/>
+      <c r="AC31" s="199"/>
+      <c r="AD31" s="199"/>
+      <c r="AE31" s="199"/>
+      <c r="AF31" s="199"/>
+      <c r="AG31" s="200"/>
     </row>
     <row r="32" spans="2:34" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B32" s="193"/>
-      <c r="C32" s="194"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="69"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="103"/>
       <c r="Q32" s="29"/>
       <c r="R32" s="29"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="57"/>
+      <c r="S32" s="201"/>
+      <c r="T32" s="202"/>
+      <c r="U32" s="202"/>
+      <c r="V32" s="202"/>
+      <c r="W32" s="202"/>
+      <c r="X32" s="202"/>
+      <c r="Y32" s="202"/>
+      <c r="Z32" s="202"/>
+      <c r="AA32" s="202"/>
+      <c r="AB32" s="202"/>
+      <c r="AC32" s="202"/>
+      <c r="AD32" s="202"/>
+      <c r="AE32" s="202"/>
+      <c r="AF32" s="202"/>
+      <c r="AG32" s="203"/>
     </row>
     <row r="33" spans="2:16" ht="23.25" customHeight="1">
       <c r="B33" s="3"/>
@@ -4767,28 +4773,102 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="M13:P14"/>
-    <mergeCell ref="D13:L14"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E32:P32"/>
+    <mergeCell ref="E31:P31"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="E19:P19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:P23"/>
+    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="S31:AG32"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="V13:AG13"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:AG15"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="S19:AG19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="V12:AG12"/>
+    <mergeCell ref="V8:AG8"/>
+    <mergeCell ref="V9:AG9"/>
+    <mergeCell ref="V10:AG10"/>
+    <mergeCell ref="V11:AG11"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="V2:AG2"/>
+    <mergeCell ref="V3:AG3"/>
+    <mergeCell ref="V4:AG4"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="D3:K4"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="B7:C9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="E18:P18"/>
+    <mergeCell ref="E20:P20"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="V7:AG7"/>
+    <mergeCell ref="D8:P9"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="E22:P22"/>
+    <mergeCell ref="S13:T13"/>
     <mergeCell ref="V5:AG5"/>
     <mergeCell ref="V6:AG6"/>
     <mergeCell ref="S22:T22"/>
@@ -4813,104 +4893,30 @@
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="E16:P16"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="M13:P14"/>
+    <mergeCell ref="D13:L14"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E28:P28"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="E18:P18"/>
-    <mergeCell ref="E20:P20"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="V7:AG7"/>
-    <mergeCell ref="D8:P9"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="E22:P22"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="D3:K4"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="B7:C9"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="S19:AG19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="V12:AG12"/>
-    <mergeCell ref="V8:AG8"/>
-    <mergeCell ref="V9:AG9"/>
-    <mergeCell ref="V10:AG10"/>
-    <mergeCell ref="V11:AG11"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="V2:AG2"/>
-    <mergeCell ref="V3:AG3"/>
-    <mergeCell ref="V4:AG4"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="V13:AG13"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:AG15"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="E19:P19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:P23"/>
-    <mergeCell ref="E24:P24"/>
-    <mergeCell ref="S31:AG32"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E32:P32"/>
-    <mergeCell ref="E31:P31"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AE28:AG28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="6">
@@ -4938,7 +4944,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLinesSet="0"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>
